--- a/mybatis/动态查询.xlsx
+++ b/mybatis/动态查询.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chiun.guo\Desktop\Interview\Interview\Mybatis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8EA0EB-A1DD-45FD-8230-C4D9680A93BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="15930" windowHeight="11970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15930" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>主要分动态表明和动态条件</t>
   </si>
@@ -26,18 +32,16 @@
   <si>
     <t>and 有时后会多出来</t>
   </si>
+  <si>
+    <t>正确提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,345 +57,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -399,324 +88,41 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -732,13 +138,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -774,13 +186,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -816,13 +234,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -858,13 +282,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -900,13 +330,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -942,13 +378,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -984,13 +426,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1026,13 +474,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1068,13 +522,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1110,13 +570,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1152,13 +618,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1194,13 +666,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <xdr:cNvPr id="13" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1236,13 +714,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1278,13 +762,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="图片 14"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <xdr:cNvPr id="15" name="图片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1320,13 +810,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="图片 15"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
+        <xdr:cNvPr id="16" name="图片 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1362,13 +858,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="图片 16"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
+        <xdr:cNvPr id="17" name="图片 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1404,13 +906,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="图片 17"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
+        <xdr:cNvPr id="18" name="图片 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1446,13 +954,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="图片 18"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
+        <xdr:cNvPr id="19" name="图片 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1488,13 +1002,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="图片 19"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
+        <xdr:cNvPr id="20" name="图片 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1530,13 +1050,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="图片 20"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
+        <xdr:cNvPr id="21" name="图片 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1572,13 +1098,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="图片 21"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId21"/>
+        <xdr:cNvPr id="22" name="图片 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1614,13 +1146,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="图片 22"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId22"/>
+        <xdr:cNvPr id="23" name="图片 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1637,6 +1175,358 @@
         <a:ln w="9525">
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>536</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>160883</xdr:colOff>
+      <xdr:row>559</xdr:row>
+      <xdr:rowOff>104279</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{857C8E68-BCBF-441A-86FE-182F15D067F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="91973400"/>
+          <a:ext cx="8333333" cy="3971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>560</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>56092</xdr:colOff>
+      <xdr:row>583</xdr:row>
+      <xdr:rowOff>104280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A38D540-7D4A-4D08-B3AC-1D86564D84CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="390525" y="96097725"/>
+          <a:ext cx="8466667" cy="3961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>584</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>141828</xdr:colOff>
+      <xdr:row>612</xdr:row>
+      <xdr:rowOff>18456</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4AA8579-7E23-406F-81B7-B70B24A3E2C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="100193475"/>
+          <a:ext cx="8371428" cy="4752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>614</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>122789</xdr:colOff>
+      <xdr:row>642</xdr:row>
+      <xdr:rowOff>75611</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2A04BE-6474-4D4F-B4C1-5BE490DE2D28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438150" y="105432225"/>
+          <a:ext cx="8285714" cy="4714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>646</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>103825</xdr:colOff>
+      <xdr:row>650</xdr:row>
+      <xdr:rowOff>47539</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6EC4CE1-E098-4A19-9466-7E54391FBCF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="110804325"/>
+          <a:ext cx="7600000" cy="685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>653</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>179927</xdr:colOff>
+      <xdr:row>669</xdr:row>
+      <xdr:rowOff>132992</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75CF4D5D-D4C0-4F5E-BAD8-F88E789FE23A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="111966375"/>
+          <a:ext cx="8380952" cy="2866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>671</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>84677</xdr:colOff>
+      <xdr:row>695</xdr:row>
+      <xdr:rowOff>47115</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{358C1DFC-A52D-42AA-93E2-A21C4B1A1E43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="115128675"/>
+          <a:ext cx="8380952" cy="4076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>697</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>160937</xdr:colOff>
+      <xdr:row>727</xdr:row>
+      <xdr:rowOff>75555</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3D6434C-6670-4873-95BE-994718DF712F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="119557800"/>
+          <a:ext cx="7904762" cy="5161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1925,76 +1815,75 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B4:F238"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B4:F645"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="Y75" sqref="Y75"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A689" workbookViewId="0">
+      <selection activeCell="F701" sqref="F701"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="2.625" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="6:6">
+    <row r="237" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F237" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="6:6">
+    <row r="238" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F238" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="645" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D645" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>